--- a/Manual Test of Rokomari_dot_com website.xlsx
+++ b/Manual Test of Rokomari_dot_com website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Default Folders\Desktop\SQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C0E00-D2F1-47A8-BE6C-28177DB6D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090D7F41-153C-47A5-9C59-A175BA4A7DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75872C2E-3A85-4FA6-83AD-48A7AC5CE616}"/>
   </bookViews>
@@ -562,7 +562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -612,9 +612,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +627,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,24 +652,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1095,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1130,10 @@
       <c r="F1" s="6">
         <v>45407</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1216,20 +1213,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <f>SUM(H2:H4:H3)</f>
         <v>14</v>
       </c>
@@ -1246,28 +1243,28 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1278,7 +1275,7 @@
       <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1293,7 +1290,7 @@
       <c r="G8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1304,7 +1301,7 @@
       <c r="B9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1319,7 +1316,7 @@
       <c r="G9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1330,7 +1327,7 @@
       <c r="B10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1345,7 +1342,7 @@
       <c r="G10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1356,7 +1353,7 @@
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1371,7 +1368,7 @@
       <c r="G11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1382,7 +1379,7 @@
       <c r="B12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1397,7 +1394,7 @@
       <c r="G12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1408,7 +1405,7 @@
       <c r="B13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1423,7 +1420,7 @@
       <c r="G13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1434,7 +1431,7 @@
       <c r="B14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -1449,7 +1446,7 @@
       <c r="G14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1460,7 +1457,7 @@
       <c r="B15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -1475,7 +1472,7 @@
       <c r="G15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1486,7 +1483,7 @@
       <c r="B16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -1501,7 +1498,7 @@
       <c r="G16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1512,7 +1509,7 @@
       <c r="B17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>123456789</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -1527,7 +1524,7 @@
       <c r="G17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1538,7 +1535,7 @@
       <c r="B18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1553,7 +1550,7 @@
       <c r="G18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1564,7 +1561,7 @@
       <c r="B19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -1579,7 +1576,7 @@
       <c r="G19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1590,7 +1587,7 @@
       <c r="B20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -1605,7 +1602,7 @@
       <c r="G20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1613,33 +1610,33 @@
       <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18"/>
+      <c r="C25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
